--- a/kargar/WS- RCM.xlsx
+++ b/kargar/WS- RCM.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.tavana\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\H.haddadniya\RCM\مهندس کارگر\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F47368-94FE-4599-9566-352590721681}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="710WS1" sheetId="4" r:id="rId1"/>
-    <sheet name="730WS1" sheetId="38" r:id="rId2"/>
-    <sheet name="740WS1" sheetId="39" r:id="rId3"/>
+    <sheet name="0710WS01" sheetId="4" r:id="rId1"/>
+    <sheet name="0730WS01" sheetId="38" r:id="rId2"/>
+    <sheet name="0740WS01" sheetId="39" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -446,19 +445,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -466,7 +465,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -474,7 +473,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -483,7 +482,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -491,7 +490,7 @@
       <b/>
       <sz val="20"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -499,13 +498,13 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -519,7 +518,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -546,7 +545,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -554,7 +553,7 @@
       <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -562,7 +561,7 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -570,7 +569,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -713,7 +712,7 @@
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{93554016-1BD8-485F-9675-40F93FE85F21}"/>
+    <cellStyle name="Normal 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -990,30 +989,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -1048,7 +1047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25">
       <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
@@ -1084,7 +1083,7 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
@@ -1129,7 +1128,7 @@
       <c r="AF3" s="17"/>
       <c r="AG3" s="17"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
@@ -1174,7 +1173,7 @@
       <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1219,7 +1218,7 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>25</v>
@@ -1266,7 +1265,7 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
     </row>
-    <row r="7" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>25</v>
@@ -1313,7 +1312,7 @@
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
     </row>
-    <row r="8" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>25</v>
@@ -1360,7 +1359,7 @@
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>25</v>
@@ -1407,7 +1406,7 @@
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
     </row>
-    <row r="10" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1452,7 +1451,7 @@
       <c r="AF10" s="17"/>
       <c r="AG10" s="17"/>
     </row>
-    <row r="11" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
@@ -1497,7 +1496,7 @@
       <c r="AF11" s="18"/>
       <c r="AG11" s="18"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>25</v>
@@ -1544,7 +1543,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>25</v>
@@ -1591,7 +1590,7 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>25</v>
@@ -1638,7 +1637,7 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>25</v>
@@ -1685,7 +1684,7 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
     </row>
-    <row r="16" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1730,7 +1729,7 @@
       <c r="AF16" s="17"/>
       <c r="AG16" s="17"/>
     </row>
-    <row r="17" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
@@ -1775,7 +1774,7 @@
       <c r="AF17" s="18"/>
       <c r="AG17" s="18"/>
     </row>
-    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
@@ -1820,7 +1819,7 @@
       <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
     </row>
-    <row r="19" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>25</v>
@@ -1867,7 +1866,7 @@
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
     </row>
-    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>25</v>
@@ -1914,7 +1913,7 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>25</v>
@@ -1961,7 +1960,7 @@
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
     </row>
-    <row r="22" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>25</v>
@@ -2008,7 +2007,7 @@
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
         <v>25</v>
@@ -2055,7 +2054,7 @@
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
     </row>
-    <row r="24" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
@@ -2100,7 +2099,7 @@
       <c r="AF24" s="17"/>
       <c r="AG24" s="17"/>
     </row>
-    <row r="25" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B25" s="5" t="s">
         <v>25</v>
       </c>
@@ -2145,7 +2144,7 @@
       <c r="AF25" s="18"/>
       <c r="AG25" s="18"/>
     </row>
-    <row r="26" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
         <v>25</v>
@@ -2192,7 +2191,7 @@
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
     </row>
-    <row r="27" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
         <v>25</v>
@@ -2239,7 +2238,7 @@
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
     </row>
-    <row r="28" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
         <v>25</v>
@@ -2286,7 +2285,7 @@
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
     </row>
-    <row r="29" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
         <v>25</v>
@@ -2333,7 +2332,7 @@
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
     </row>
-    <row r="30" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B30" s="4" t="s">
         <v>25</v>
       </c>
@@ -2378,7 +2377,7 @@
       <c r="AF30" s="17"/>
       <c r="AG30" s="17"/>
     </row>
-    <row r="31" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B31" s="5" t="s">
         <v>25</v>
       </c>
@@ -2423,7 +2422,7 @@
       <c r="AF31" s="18"/>
       <c r="AG31" s="18"/>
     </row>
-    <row r="32" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B32" s="5" t="s">
         <v>25</v>
       </c>
@@ -2476,30 +2475,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53608F52-2287-41EF-90DD-1CB75B5F1A3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView topLeftCell="F23" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A12" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -2534,7 +2533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25">
       <c r="B2" s="3" t="s">
         <v>74</v>
       </c>
@@ -2570,7 +2569,7 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B3" s="4" t="s">
         <v>74</v>
       </c>
@@ -2615,7 +2614,7 @@
       <c r="AF3" s="17"/>
       <c r="AG3" s="17"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B4" s="5" t="s">
         <v>74</v>
       </c>
@@ -2660,7 +2659,7 @@
       <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B5" s="5" t="s">
         <v>74</v>
       </c>
@@ -2705,7 +2704,7 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>74</v>
@@ -2752,7 +2751,7 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
     </row>
-    <row r="7" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>74</v>
@@ -2799,7 +2798,7 @@
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
     </row>
-    <row r="8" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>74</v>
@@ -2846,7 +2845,7 @@
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>74</v>
@@ -2893,7 +2892,7 @@
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
     </row>
-    <row r="10" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B10" s="4" t="s">
         <v>74</v>
       </c>
@@ -2938,7 +2937,7 @@
       <c r="AF10" s="17"/>
       <c r="AG10" s="17"/>
     </row>
-    <row r="11" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B11" s="5" t="s">
         <v>74</v>
       </c>
@@ -2983,7 +2982,7 @@
       <c r="AF11" s="18"/>
       <c r="AG11" s="18"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>74</v>
@@ -3030,7 +3029,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>74</v>
@@ -3077,7 +3076,7 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>74</v>
@@ -3124,7 +3123,7 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>74</v>
@@ -3171,7 +3170,7 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
     </row>
-    <row r="16" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B16" s="4" t="s">
         <v>74</v>
       </c>
@@ -3216,7 +3215,7 @@
       <c r="AF16" s="17"/>
       <c r="AG16" s="17"/>
     </row>
-    <row r="17" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B17" s="5" t="s">
         <v>74</v>
       </c>
@@ -3261,7 +3260,7 @@
       <c r="AF17" s="18"/>
       <c r="AG17" s="18"/>
     </row>
-    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B18" s="5" t="s">
         <v>74</v>
       </c>
@@ -3306,7 +3305,7 @@
       <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
     </row>
-    <row r="19" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>74</v>
@@ -3353,7 +3352,7 @@
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
     </row>
-    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>74</v>
@@ -3400,7 +3399,7 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>74</v>
@@ -3447,7 +3446,7 @@
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
     </row>
-    <row r="22" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>74</v>
@@ -3494,7 +3493,7 @@
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
         <v>74</v>
@@ -3541,7 +3540,7 @@
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
     </row>
-    <row r="24" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B24" s="4" t="s">
         <v>74</v>
       </c>
@@ -3586,7 +3585,7 @@
       <c r="AF24" s="17"/>
       <c r="AG24" s="17"/>
     </row>
-    <row r="25" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B25" s="5" t="s">
         <v>74</v>
       </c>
@@ -3631,7 +3630,7 @@
       <c r="AF25" s="18"/>
       <c r="AG25" s="18"/>
     </row>
-    <row r="26" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
         <v>74</v>
@@ -3678,7 +3677,7 @@
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
     </row>
-    <row r="27" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
         <v>74</v>
@@ -3725,7 +3724,7 @@
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
     </row>
-    <row r="28" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
         <v>74</v>
@@ -3772,7 +3771,7 @@
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
     </row>
-    <row r="29" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
         <v>74</v>
@@ -3819,7 +3818,7 @@
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
     </row>
-    <row r="30" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B30" s="4" t="s">
         <v>74</v>
       </c>
@@ -3864,7 +3863,7 @@
       <c r="AF30" s="17"/>
       <c r="AG30" s="17"/>
     </row>
-    <row r="31" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B31" s="5" t="s">
         <v>74</v>
       </c>
@@ -3909,7 +3908,7 @@
       <c r="AF31" s="18"/>
       <c r="AG31" s="18"/>
     </row>
-    <row r="32" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B32" s="5" t="s">
         <v>74</v>
       </c>
@@ -3961,30 +3960,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588884BF-3E1D-44CA-AED4-2068AD306020}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="8" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -4019,7 +4018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25">
       <c r="B2" s="3" t="s">
         <v>106</v>
       </c>
@@ -4055,7 +4054,7 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B3" s="4" t="s">
         <v>106</v>
       </c>
@@ -4100,7 +4099,7 @@
       <c r="AF3" s="17"/>
       <c r="AG3" s="17"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B4" s="5" t="s">
         <v>106</v>
       </c>
@@ -4145,7 +4144,7 @@
       <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B5" s="5" t="s">
         <v>106</v>
       </c>
@@ -4190,7 +4189,7 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>106</v>
@@ -4237,7 +4236,7 @@
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
     </row>
-    <row r="7" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>106</v>
@@ -4284,7 +4283,7 @@
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
     </row>
-    <row r="8" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>106</v>
@@ -4331,7 +4330,7 @@
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>106</v>
@@ -4378,7 +4377,7 @@
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
     </row>
-    <row r="10" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B10" s="4" t="s">
         <v>106</v>
       </c>
@@ -4423,7 +4422,7 @@
       <c r="AF10" s="17"/>
       <c r="AG10" s="17"/>
     </row>
-    <row r="11" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B11" s="5" t="s">
         <v>106</v>
       </c>
@@ -4468,7 +4467,7 @@
       <c r="AF11" s="18"/>
       <c r="AG11" s="18"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>106</v>
@@ -4515,7 +4514,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>106</v>
@@ -4562,7 +4561,7 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>106</v>
@@ -4609,7 +4608,7 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>106</v>
@@ -4628,7 +4627,7 @@
         <v>120</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -4656,7 +4655,7 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
     </row>
-    <row r="16" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B16" s="4" t="s">
         <v>106</v>
       </c>
@@ -4701,7 +4700,7 @@
       <c r="AF16" s="17"/>
       <c r="AG16" s="17"/>
     </row>
-    <row r="17" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B17" s="5" t="s">
         <v>106</v>
       </c>
@@ -4746,7 +4745,7 @@
       <c r="AF17" s="18"/>
       <c r="AG17" s="18"/>
     </row>
-    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B18" s="5" t="s">
         <v>106</v>
       </c>
@@ -4791,7 +4790,7 @@
       <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
     </row>
-    <row r="19" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>106</v>
@@ -4838,7 +4837,7 @@
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
     </row>
-    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>106</v>
@@ -4885,7 +4884,7 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
     </row>
-    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>106</v>
@@ -4932,7 +4931,7 @@
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
     </row>
-    <row r="22" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>106</v>
@@ -4979,7 +4978,7 @@
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
     </row>
-    <row r="23" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
         <v>106</v>
@@ -5026,7 +5025,7 @@
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
     </row>
-    <row r="24" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B24" s="4" t="s">
         <v>106</v>
       </c>
@@ -5071,7 +5070,7 @@
       <c r="AF24" s="17"/>
       <c r="AG24" s="17"/>
     </row>
-    <row r="25" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B25" s="5" t="s">
         <v>106</v>
       </c>
@@ -5116,7 +5115,7 @@
       <c r="AF25" s="18"/>
       <c r="AG25" s="18"/>
     </row>
-    <row r="26" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
         <v>106</v>
@@ -5163,7 +5162,7 @@
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
     </row>
-    <row r="27" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
         <v>106</v>
@@ -5210,7 +5209,7 @@
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
     </row>
-    <row r="28" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
         <v>106</v>
@@ -5257,7 +5256,7 @@
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
     </row>
-    <row r="29" spans="1:33" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" s="2" customFormat="1" ht="18.75">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
         <v>106</v>
@@ -5304,7 +5303,7 @@
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
     </row>
-    <row r="30" spans="1:33" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" s="4" customFormat="1" ht="23.25">
       <c r="B30" s="4" t="s">
         <v>106</v>
       </c>
@@ -5349,7 +5348,7 @@
       <c r="AF30" s="17"/>
       <c r="AG30" s="17"/>
     </row>
-    <row r="31" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B31" s="5" t="s">
         <v>106</v>
       </c>
@@ -5394,7 +5393,7 @@
       <c r="AF31" s="18"/>
       <c r="AG31" s="18"/>
     </row>
-    <row r="32" spans="1:33" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" s="5" customFormat="1" ht="18.75">
       <c r="B32" s="5" t="s">
         <v>106</v>
       </c>
